--- a/biology/Zoologie/Calospila_fannia/Calospila_fannia.xlsx
+++ b/biology/Zoologie/Calospila_fannia/Calospila_fannia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calospila fannia est une espèce d'insectes lépidoptères de la famille des Riodinidae et du genre Calospila.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calospila fannia a été décrit par Frederick DuCane Godman en 1903 sous le nom de Lemonias fannia[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calospila fannia a été décrit par Frederick DuCane Godman en 1903 sous le nom de Lemonias fannia.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Calospila fannia est un papillon au dessus noir avec aux postérieures une bande marginale bleue. Le revers est marron avec une ligne submarginale de points noirs et des lignes noires qui lui sont parallèles.
 </t>
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -599,13 +617,85 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calospila fannia n'est présent qu'au Guyana[1].
-Biotope
-Il réside dans la forêt tropicale.
-Protection
-Pas de statut de protection particulier.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calospila fannia n'est présent qu'au Guyana.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Calospila_fannia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calospila_fannia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt tropicale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Calospila_fannia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calospila_fannia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
